--- a/Result and a case study tool/Carcinoma,_Hepatocellular_top_50_predictions.xlsx
+++ b/Result and a case study tool/Carcinoma,_Hepatocellular_top_50_predictions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <t>miRNA</t>
   </si>
   <si>
-    <t>Predicted Value</t>
+    <t>Score</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -363,18 +363,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -839,19 +836,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,7 +857,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,13 +981,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1340,18 +1346,19 @@
   <sheetPr/>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="43.375" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="23.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="15" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1361,707 +1368,707 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>1.20893146</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>35485699</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>1.17034812</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>1.15234286</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>35473892</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>1.13941478</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>34564768</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>1.13341572</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>34812269</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>1.132647488</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>35116505</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>1.127330312</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>36811210</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>1.1229641</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>35666610</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>1.11850024</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>31257522</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>1.11388964</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>33399102</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>1.10381172</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>34083664</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>1.08889898</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>1.08457276</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <v>32373215</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>1.08382934</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <v>31235746</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>1.07792252</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <v>31060424</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>1.07340494</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>35117617</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>1.068605732</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>33303811</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>1.06622938</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <v>31655310</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>1.0639764</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>1.06373754</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
         <v>30943053</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>1.060339804</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
         <v>30982352</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>1.06010294</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="5">
         <v>35252056</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>1.05226953</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <v>30896868</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>1.048460446</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
         <v>34019714</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>1.04317053</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="5">
         <v>35196550</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>1.04161482</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>1.040560388</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="5">
         <v>30519044</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>1.04042082</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <v>33168810</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>1.03819088</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="5">
         <v>31729887</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>1.034252326</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>1.031930206</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="5">
         <v>35493459</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>1.028452068</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="5">
         <v>31312355</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>1.02809852</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="5">
         <v>31190897</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>1.027962188</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <v>1.027340548</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="5">
         <v>36855431</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>1.02728518</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
         <v>32960907</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>1.02687894</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="5">
         <v>33231584</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>1.025308874</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="5">
         <v>35485699</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>1.02491444</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="5">
         <v>32301252</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>1.022400148</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="5">
         <v>35199873</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <v>1.02186618</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="5">
         <v>31514072</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="A43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>1.02141476</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="5">
         <v>31299165</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <v>1.0165885</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="5">
         <v>33613718</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="A45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>1.014597366</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="5">
         <v>35306563</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>1.014391988</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="A47" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <v>1.01403104</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="5">
         <v>34076989</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="4">
         <v>1.01380769</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>1.01286025</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="5">
         <v>36567178</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>1.0094084</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="5">
         <v>35762276</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>1.009265534</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="5">
         <v>32660176</v>
       </c>
     </row>
